--- a/backtest_group.xlsx
+++ b/backtest_group.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A2BBFD-62B2-446D-B985-96DA41292557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17AA56A-3984-4150-B914-3916AAD2A5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="1260" windowWidth="28800" windowHeight="18075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
   <si>
     <t>Symbol</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Energy</t>
   </si>
   <si>
-    <t>HOLDING</t>
-  </si>
-  <si>
     <t>POTENTIAL</t>
   </si>
   <si>
@@ -77,15 +74,6 @@
     <t>PURCHASE_QTY</t>
   </si>
   <si>
-    <t>2024-04-03</t>
-  </si>
-  <si>
-    <t>2024-01-03</t>
-  </si>
-  <si>
-    <t>2024-04-02</t>
-  </si>
-  <si>
     <t>Dividend Equity</t>
   </si>
   <si>
@@ -98,16 +86,16 @@
     <t>Semiconductors</t>
   </si>
   <si>
-    <t>2024-07-25</t>
-  </si>
-  <si>
-    <t>2024-09-18</t>
-  </si>
-  <si>
     <t>SCHB</t>
   </si>
   <si>
     <t>Total Market</t>
+  </si>
+  <si>
+    <t>VXUS</t>
+  </si>
+  <si>
+    <t>International</t>
   </si>
 </sst>
 </file>
@@ -967,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB15205-EC29-4A1F-92FA-F852B70D2C5E}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -991,16 +979,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,20 +996,14 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="2">
-        <v>79.73</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="1"/>
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1029,20 +1011,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="2">
-        <v>86.67</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1050,20 +1026,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2">
-        <v>41.65</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1"/>
       <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1071,20 +1041,14 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="2">
-        <v>39.83</v>
-      </c>
-      <c r="F5" s="1">
-        <v>5</v>
-      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1097,26 +1061,34 @@
       <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="2">
-        <v>88.23</v>
-      </c>
-      <c r="F6" s="1">
-        <v>3</v>
-      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/backtest_group.xlsx
+++ b/backtest_group.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\python\git_repo\stk_advisor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melvin\Project\Python\stk_advisor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F17AA56A-3984-4150-B914-3916AAD2A5A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6281CEA1-4C76-4CB4-B122-7BE4C338E370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26055" yWindow="795" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="portfolio" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Symbol</t>
   </si>
@@ -96,6 +96,12 @@
   </si>
   <si>
     <t>International</t>
+  </si>
+  <si>
+    <t>NVDA</t>
+  </si>
+  <si>
+    <t>Nvidia Stock</t>
   </si>
 </sst>
 </file>
@@ -955,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB15205-EC29-4A1F-92FA-F852B70D2C5E}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1090,6 +1096,17 @@
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
     </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
